--- a/MedicalLink/Templates/BC_ChenhLechNgayGiuong_KhoaQuocTe.xlsx
+++ b/MedicalLink/Templates/BC_ChenhLechNgayGiuong_KhoaQuocTe.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>TỔNG CỘNG</t>
   </si>
@@ -177,6 +177,12 @@
   </si>
   <si>
     <t>&amp;=[DATA1].BN_THANHTOAN</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA].TENBENHVIEN</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA].SOYTE</t>
   </si>
 </sst>
 </file>
@@ -350,7 +356,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -438,6 +444,12 @@
     </xf>
     <xf numFmtId="164" fontId="9" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -734,8 +746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X11"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="P4" zoomScale="115" zoomScaleNormal="110" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="110" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -761,7 +773,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
-      <c r="A1" s="3"/>
+      <c r="A1" s="34" t="s">
+        <v>51</v>
+      </c>
       <c r="B1" s="3"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -772,6 +786,9 @@
       <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:24" ht="25.5">
+      <c r="A2" s="35" t="s">
+        <v>50</v>
+      </c>
       <c r="D2" s="29" t="s">
         <v>20</v>
       </c>
